--- a/medicine/Psychotrope/Cirò_bianco/Cirò_bianco.xlsx
+++ b/medicine/Psychotrope/Cirò_bianco/Cirò_bianco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cir%C3%B2_bianco</t>
+          <t>Cirò_bianco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cirò bianco est un vin blanc italien produit dans la région Calabre, dans le sud de l'Italie, doté d'une appellation DOC depuis le 25 septembre 1989. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cir%C3%B2_bianco</t>
+          <t>Cirò_bianco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Crotone dans les communes de Cirò et Cirò Marina ainsi qu'en partie sur le territoire de Melissa et Crucoli.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cir%C3%B2_bianco</t>
+          <t>Cirò_bianco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune plus ou moins intense
 odeur : vineuse et agréable
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cir%C3%B2_bianco</t>
+          <t>Cirò_bianco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Détails historiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cirò est certainement le vin le plus connu de Calabre. Son origine est très ancienne et remonte à l'époque où la région, colonisée par les Grecs, faisait partie de la Grande-Grèce. Son nom provient d'un vin amené par les colonisateurs, le Krimisa.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cir%C3%B2_bianco</t>
+          <t>Cirò_bianco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cirò bianco est recommandé pour accompagner des pâtes, risotti aux légumes, fruits de mer, poissons, viandes blanches et volaille, fromage ricotta. Il peut également être servi à l'apéritif pour accompagner les antipasti.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cir%C3%B2_bianco</t>
+          <t>Cirò_bianco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres : 
 Crotone : information non disponible</t>
